--- a/biology/Histoire de la zoologie et de la botanique/Willi_Ziegler/Willi_Ziegler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Willi_Ziegler/Willi_Ziegler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willi Ziegler, né le 13 mars 1929 à Villingen, en Hesse et décédé le 8 août 2002, est un paléontologue allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) « Ctenognathodus Fay, 1959 ou Spathognathodus Branson &amp; Mehl, 1941 ? », Journal of Paleontology, vol. 35, no 6,‎ novembre 1961, p. 1236-1238 (lire en ligne).
 Die Palmatolepis glabra-Gruppe (Conodonta) nach der Revision der Typen von Ulrich &amp; Bassler durch JW Huddle. Fortschritte in der Geologie von Rheinland und …, 1969.
@@ -544,7 +558,9 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1985 il reçoit la Médaille Coke, une récompense scientifique dans le domaine de la géologie décernée par la Société géologique de Londres et en 1988 la Médaille de Pander, une récompense scientifique dans le domaine de la connaissance des conodontes, décernée par la Pander Society.
 </t>
